--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095262.190914833</v>
+        <v>1093374.609398431</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.58496257157201</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>352.1499522257657</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>160.1036732006758</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.94840154348084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>148.8936581718879</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>33.21446231455224</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>78.08506320366504</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>197.4345901757417</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>47.5032010134035</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>7.270565549321526</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>221.9323490168575</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>277.3062486308677</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.8312878602034</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>98.63166490834583</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>140.1188684221791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>216.6800424792182</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>188.1607094910707</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>101.3888385539021</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>157.2425576766693</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1230127207784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>76.91498996503432</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965519</v>
+        <v>93.41221638965517</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801199</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>90.21779139437406</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>55.21598883571481</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>120.2837793276697</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952708</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224539</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>478.8522906713811</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>2105.048665729205</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2659.703483444086</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>2659.703483444086</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>2509.58684403175</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>2509.58684403175</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>2362.69689653384</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>2362.69689653384</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>2204.94852396637</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>2667.732171871844</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>2667.732171871844</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>2667.732171871844</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W4" t="n">
-        <v>2667.732171871844</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X4" t="n">
-        <v>2667.732171871844</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>2659.703483444086</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.309493689272</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C5" t="n">
-        <v>1328.309493689272</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1328.309493689272</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>942.5212410910276</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>531.5353363014201</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2663.599129084331</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729205</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.909333753394</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>501.108524424795</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1735.60643674436</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C8" t="n">
-        <v>1735.60643674436</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D8" t="n">
-        <v>1377.340738137609</v>
+        <v>912.6235745962956</v>
       </c>
       <c r="E8" t="n">
-        <v>991.5524855393649</v>
+        <v>526.8353219980513</v>
       </c>
       <c r="F8" t="n">
-        <v>580.5665807497573</v>
+        <v>115.8494172084438</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>101.9260131470347</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>101.9260131470347</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2125.745768720171</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1735.60643674436</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4899,7 +4899,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.4036268380755</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>211.4036268380755</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>61.28698742573974</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380755</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380755</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380755</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5024,28 +5024,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,7 +5063,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1050.956765431391</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>796.2722772255036</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W13" t="n">
-        <v>506.8551071885429</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="X13" t="n">
-        <v>278.8655562905255</v>
+        <v>674.9958217162123</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>674.9958217162123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5318,10 +5318,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>936.0662010112162</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C16" t="n">
-        <v>767.1300180833093</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>617.0133786709736</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>469.1002850885804</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>469.1002850885804</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,7 +5452,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
         <v>1498.916270557902</v>
@@ -5464,22 +5464,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1288.213222767863</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1288.213222767863</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>1033.528734561976</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>1033.528734561976</v>
       </c>
       <c r="X16" t="n">
-        <v>936.0662010112162</v>
+        <v>805.539183663959</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.0662010112162</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,31 +5534,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.8041243279824</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>388.8679414000756</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>238.7513019877398</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>785.7936752259998</v>
+        <v>990.9189019944725</v>
       </c>
       <c r="X19" t="n">
-        <v>557.8041243279824</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.8041243279824</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>765.0418208473205</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6072,22 +6072,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>256.0479578003559</v>
+        <v>665.5728295347034</v>
       </c>
       <c r="C25" t="n">
-        <v>256.0479578003559</v>
+        <v>496.6366466067964</v>
       </c>
       <c r="D25" t="n">
-        <v>256.0479578003559</v>
+        <v>346.5200071944606</v>
       </c>
       <c r="E25" t="n">
-        <v>256.0479578003559</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>256.0479578003559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655735</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W25" t="n">
-        <v>665.685973528613</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305956</v>
+        <v>847.2212943649431</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305956</v>
+        <v>847.2212943649431</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6312,7 +6312,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.0729548808321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529252</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.85508492238</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1159.85508492238</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>931.8655340243622</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.0729548808321</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215259</v>
+        <v>543.0423586043025</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749898</v>
+        <v>543.0423586043025</v>
       </c>
       <c r="D31" t="n">
-        <v>543.343727644025</v>
+        <v>448.6865844733377</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430028</v>
+        <v>356.5343561723155</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264633</v>
+        <v>265.405273955776</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1936.126063056076</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1768.101513126952</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1646.602746129306</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1447.67912320479</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>1214.0228184492</v>
+        <v>957.9946671386987</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832554</v>
+        <v>785.7659815220522</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703947</v>
+        <v>620.734267659893</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6710,7 +6710,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,13 +6947,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,10 +9720,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503174</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>64.30500338171984</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>9.216749705723259</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.66228060317418</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>122.9158961500434</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>6.315094224390084</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>69.84295585737283</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.760100492532558</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>45.04512409266707</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>9.251010786708241</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>138.0146306030496</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>47.71373358834579</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897894</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>110.7503164423505</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.415845301584341e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979408.0102536822</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.010253682</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="11">
@@ -26314,13 +26314,13 @@
         <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="F2" t="n">
         <v>410580.5127245942</v>
@@ -26329,13 +26329,13 @@
         <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>427163.2442125333</v>
@@ -26347,13 +26347,13 @@
         <v>431046.9291787486</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787487</v>
+      </c>
+      <c r="O2" t="n">
         <v>431046.9291787486</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787486</v>
       </c>
     </row>
     <row r="3">
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008668</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284576</v>
       </c>
     </row>
     <row r="4">
@@ -26427,19 +26427,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687073</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687069</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106728</v>
@@ -26448,16 +26448,16 @@
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819121</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,7 +26491,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407412.8958857295</v>
+        <v>-407412.8958857296</v>
       </c>
       <c r="C6" t="n">
-        <v>182554.9833288148</v>
+        <v>182554.9833288149</v>
       </c>
       <c r="D6" t="n">
         <v>182554.9833288148</v>
       </c>
       <c r="E6" t="n">
-        <v>-228741.4572878892</v>
+        <v>-228838.9164138615</v>
       </c>
       <c r="F6" t="n">
-        <v>296418.5791890068</v>
+        <v>296321.1200630347</v>
       </c>
       <c r="G6" t="n">
-        <v>296418.5791890071</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="H6" t="n">
-        <v>296418.5791890068</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="I6" t="n">
-        <v>296418.5791890069</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.359996414</v>
+        <v>119897.9008704419</v>
       </c>
       <c r="K6" t="n">
-        <v>246033.2002783976</v>
+        <v>246014.7065404631</v>
       </c>
       <c r="L6" t="n">
         <v>278395.5217296652</v>
       </c>
       <c r="M6" t="n">
-        <v>153937.4132966949</v>
+        <v>153937.413296695</v>
       </c>
       <c r="N6" t="n">
-        <v>288738.428530532</v>
+        <v>288738.4285305321</v>
       </c>
       <c r="O6" t="n">
         <v>288738.4285305321</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26759,19 +26759,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010835</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.1488790919086</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>13.12293954524188</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>92.03397012315216</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.636251808614</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>264.8905118489071</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,16 +27667,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>218.0097051937371</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>174.052580120163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>216.3495798450533</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>104.4281152314578</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>139.1633970972476</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382566</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
